--- a/FIT5217/Assignment 1/A1-5217-CSV-Template.xlsx
+++ b/FIT5217/Assignment 1/A1-5217-CSV-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manut\Desktop\Master of Artificial Intelligence Y2S1\FIT5217\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC5407F-0CC4-4B6C-8806-8793F8E34FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C82C11D-2397-4185-8250-8353CD6D655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{34259C54-2B50-BF4C-8327-32622ED776FF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Q1</t>
   </si>
@@ -75,15 +76,9 @@
     <t>2:00PM 29/3/2024</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>2:02PM 29/3/2024</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>2:05PM 29/3/2024</t>
   </si>
   <si>
@@ -93,9 +88,6 @@
     <t>If Ben works on Monday it implies that he is working everyday for the rest of the week except Sundays, and Jane works Tuesday and every other day for the week, how many days can Ben work with Jane in a week if he works on Monday?</t>
   </si>
   <si>
-    <t>1 Day (Monday)</t>
-  </si>
-  <si>
     <t>3 Days (Tuesday, Thursday, Saturday)</t>
   </si>
   <si>
@@ -105,9 +97,6 @@
     <t>2:26PM 29/3/2024</t>
   </si>
   <si>
-    <t>2 Days (Tuesday, Wednesday)</t>
-  </si>
-  <si>
     <t>2:27PM 29/3/2024</t>
   </si>
   <si>
@@ -117,12 +106,6 @@
     <t>Jane</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
     <t>2:54PM 29/3/2024</t>
   </si>
   <si>
@@ -136,12 +119,6 @@
   </si>
   <si>
     <t>1 Year</t>
-  </si>
-  <si>
-    <t>9 Years</t>
-  </si>
-  <si>
-    <t>33.3 Years</t>
   </si>
   <si>
     <t>3:01PM 29/3/2024</t>
@@ -165,12 +142,406 @@
 c) Takes the phone out in the class and copies down the answers into his exam sheet
 d) Colludes with his friend who is sitting for the same test by searching for answers using his friends phone</t>
   </si>
+  <si>
+    <t>d) Colludes with his friend who is sitting for the same test by searching for answers using his friend's phone.</t>
+  </si>
+  <si>
+    <t>N/A (LLM refused to respond due to Anthropic's tight controls over "illegal / improper" activities.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To solve this problem, we need to follow these steps:
+1. Find the number of ouhjhjhjhjhj species that survived after the meteor impact.
+2. Calculate the number of extinct species that came back after 20 years.
+3. Determine the number of species that went extinct over the next 30 years.
+4. Calculate the number of new species discovered over the next 30 years.
+5. Find the total number of unique species after 30 years.
+Given information:
+- Initially, there were 50 types of ouhjhjhjhjhj species.
+- After the meteor impact, 70% of the species went extinct.
+- After 20 years, 20% of the extinct species came back.
+- Every year, one type of ouhjhjhjhjhj goes extinct.
+- Every year, two new types of ouhjhjhjhjhj are discovered.
+Step 1: Find the number of ouhjhjhjhjhj species that survived after the meteor impact.
+Number of species that survived = 50 - (50 × 0.7) = 15 species
+Step 2: Calculate the number of extinct species that came back after 20 years.
+Number of species that went extinct = 50 - 15 = 35 species
+Number of extinct species that came back = 35 × 0.2 = 7 species
+Step 3: Determine the number of species that went extinct over the next 30 years.
+Number of species that went extinct = 30 (one species per year)
+Step 4: Calculate the number of new species discovered over the next 30 years.
+Number of new species discovered = 30 × 2 = 60 species
+Step 5: Find the total number of unique species after 30 years.
+Total number of unique species = Number of surviving species + Number of extinct species that came back + Number of new species discovered - Number of species that went extinct
+Total number of unique species = 15 + 7 + 60 - 30 = 52 species
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, after 30 years, there will be 52 unique types of ouhjhjhjhjhj species</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let's break down the problem step by step:
+1. Initially, you have 50 types of species called ouhjhjhjhjhj.
+2. After the meteor impact, 70% of the ouhjhjhjhjhj species go extinct. This leaves us with:
+   Remaining species = 50 - (70% of 50) 
+                    = 50 - (0.70 * 50)
+                    = 50 - 35
+                    = 15 species remaining
+3. Over the subsequent 20 years, 20% of the extinct species miraculously come back. So, the number of species coming back is:
+   Species coming back = 20% of extinct species
+                       = 20% of (70% of 50)
+                       = 0.20 * 35
+                       = 7 species
+4. For each subsequent year, a type of ouhjhjhjhjhj goes extinct, but 2 new types are discovered. So, each year, there is a net gain of 2 - 1 = 1 new species.
+5. After 20 years, the total number of species is:
+   Total species after 20 years = Remaining species + Species coming back
+                                = 15 + 7
+                                = 22 species
+6. Over the next 10 years (30 years in total), we continue to discover 2 new species each year. So, in total, we have an additional 2 * 10 = 20 new species.
+7. Adding these new species to the existing ones:
+   Total species after 30 years = Total species after 20 years + New species discovered
+                                = 22 + 20
+                                = 42 species
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So, 30 years later, we have 42 unique types of ouhjhjhjhjhj.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Ben works on Monday and works every day for the rest of the week except Sundays, he will be working on Monday, Tuesday, Wednesday, Thursday, Friday, and Saturday. So, Ben works a total of 6 days in a week.
+Jane works on Tuesday and every other day for the week. So, Jane works on Tuesday, Thursday, Saturday, and Monday (assuming she starts on Tuesday). She will continue this pattern for the rest of the week.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Therefore, if Ben works on Monday and Jane works on Monday as well, they will overlap on that day. So, they can work together on Monday. Hence, the answer is 1 day.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we've just celebrated Julie's birthday, then the next birthday would be Jack's, because Julie's birthday comes after Jack's. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, Jack's birthday is next in line.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To calculate how many years it will take for Andy to pay back the loan fully, we can use the formula for calculating the number of periods (in this case, quarters) needed to pay off a loan with regular payments. We'll use the formula for the number of periods \( n \) in the compound interest formula:
+\[
+n = \frac{{\log\left(\frac{{PMT}}{{PMT - \frac{{r \cdot PV}}{{m}}}}\right)}}{{\log\left(1 + \frac{{r}}{{m}}\right)}}
+\]
+Where:
+- \( PMT \) is the regular payment amount ($30,000)
+- \( PV \) is the present value (loan amount, $100,000)
+- \( r \) is the interest rate per period (annual interest rate divided by the number of periods per year, in this case, quarterly, so \( \frac{{0.03}}{{4}} \))
+- \( m \) is the number of compounding periods per year (4 for quarterly payments)
+Substituting the given values:
+\[
+n = \frac{{\log\left(\frac{{30000}}{{30000 - \frac{{0.03 \cdot 100000}}{{4}}}\right)}}{{\log\left(1 + \frac{{0.03}}{{4}}\right)}}
+\]
+Let's calculate:
+\[
+n = \frac{{\log\left(\frac{{30000}}{{30000 - \frac{{3000}}{{4}}}\right)}}{{\log\left(1 + \frac{{0.03}}{{4}}\right)}}
+\]
+\[
+n = \frac{{\log\left(\frac{{30000}}{{30000 - 750}}\right)}}{{\log\left(1 + 0.0075\right)}}
+\]
+\[
+n = \frac{{\log\left(\frac{{30000}}{{29250}}\right)}}{{\log\left(1.0075\right)}}
+\]
+\[
+n \approx \frac{{\log(1.02564)}}{{\log(1.0075)}}
+\]
+\[
+n \approx \frac{{0.01012}}{{0.00122}}
+\]
+\[
+n \approx 8.30
+\]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So, Andy will need approximately 8.30 years to pay back the loan fully. However, since it's unlikely he can pay off a fraction of a year, he would need to round up to the next whole year.
+Therefore, it will take Andy approximately 9 years to pay off the loan fully.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To solve this problem, we need to identify the days when both Ben and Jane are working.
+Given:
+- If Ben works on Monday, he works every day for the rest of the week except Sundays.
+- Jane works on Tuesday and every other day for the week.
+Step 1: Determine the days when Ben works.
+Since Ben works on Monday, he will work on the following days:
+Monday, Tuesday, Wednesday, Thursday, Saturday
+Step 2: Determine the days when Jane works.
+Jane works on Tuesday and every other day for the week, which means she works on:
+Tuesday, Thursday, Saturday
+Step 3: Find the common days when both Ben and Jane are working.
+The common days are: Tuesday, Thursday, Saturday
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, if Ben works on Monday, he can work with Jane for 3 days in a week.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To solve this problem, I need to analyze the given information about the order of birthdays and determine which birthday comes next after Julie's.
+Given:
+- Jane's birthday is before the person asking the question (you).
+- Jack's birthday is after you.
+- Julie's birthday is after Jack's birthday.
+- We just celebrated Julie's birthday.
+Since we just celebrated Julie's birthday, the next birthday in order would be yours (the person asking the question).
+This is because the order of birthdays is:
+1. Jane's birthday (before you)
+2. Your birthday
+3. Jack's birthday (after you)
+4. Julie's birthday (after Jack's)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, if we just celebrated Julie's birthday, the next birthday that will come is yours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To solve this problem, we need to find the total amount Andy needs to pay back, including the principal amount and the interest, and then calculate the number of quarters (or years) it will take to pay off the loan with the given quarterly payment of $30,000.
+Given information:
+- Principal amount (loan amount) = $100,000
+- Interest rate = 3% per annum (p.a.)
+- Quarterly payment = $30,000
+Step 1: Calculate the total interest payable.
+Total interest payable = Principal amount × Interest rate × Time (in years)
+Since we don't know the time (in years) yet, we can leave it as a variable, let's say "t" years.
+Total interest payable = $100,000 × 0.03 × t
+Step 2: Calculate the total amount to be paid back.
+Total amount to be paid back = Principal amount + Total interest payable
+Total amount to be paid back = $100,000 + ($100,000 × 0.03 × t)
+Total amount to be paid back = $100,000 + ($3,000t)
+Step 3: Set up an equation to find the number of quarters (or years).
+Total amount to be paid back = Quarterly payment × Number of quarters
+$100,000 + ($3,000t) = $30,000 × Number of quarters
+Let's assume the number of quarters is "n".
+$100,000 + ($3,000t) = $30,000n
+Step 4: Solve for "t" in terms of "n".
+$100,000 + ($3,000t) = $30,000n
+$3,000t = $30,000n - $100,000
+t = ($30,000n - $100,000) / $3,000
+t = 10n - (100,000 / 3,000)
+t = 10n - 33.33
+Step 5: Convert the number of quarters to years.
+Number of years = Number of quarters / 4
+t = n / 4
+Substitute t in the equation from Step 4.
+n / 4 = 10n - 33.33
+n = 133.33
+Step 6: Convert the number of quarters back to years.
+Number of years = 133.33 / 4
+Number of years ≈ 33.33 years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, it will take Andy approximately 33.33 years (or 33 years and 4 months) to pay back the loan of $100,000 with a quarterly payment of $30,000 at an interest rate of 3% per annum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The man, in a moment of panic and uncertainty, chooses option (b). He steps out of the exam room and heads towards the washroom, phone in hand. Once in a stall, he quickly types his queries and scrolls through the results, frantically searching for the answers he needs. After a few minutes, he pockets his phone, takes a deep breath, and returns to the exam room, hoping that his quick action will go unnoticed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First, we need to calculate how many types of Ouhjhjhjhjhj are left after the meteor strike: 
+Total types before the meteor = 50
+Extinction caused by meteor = 70% of 50 = 35
+Surviving types after meteor = 50 - 35 = 15
+Now, we calculate the number of types that come back: 
+Number of extinct types that come back = 20% of 35 = 7
+So, 7 types come back, adding them to the 15 surviving types: 
+Total types after the comeback = 15 + 7 = 22
+Now, we need to account for the annual changes: 
+Every year, one type goes extinct, and two new types are discovered, so over 30 years: 
+30 years x (2 new types - 1 extinct type) = 30 years x 1 type = 30 types
+Therefore, the total number of unique types of Ouhjhjhjhjhj 30 years later: 
+Final total = 22 original types + 30 new types = 52 types
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+So, 30 years after the meteor strike, there would be 52 unique types of Ouhjhjhjhjhj.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Ben and Jane work in different days, they can work 6 days a week. 
+Ben works on Monday, and Jane works Tuesday and every day except Sunday. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This means that Ben and Jane can work together to cover 6 days in a week.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yes, Julie's birthday would be after Jack's. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It would be the birthday that comes after, and since Jane's birthday is before Jack's, Jane's birthday would be next.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To calculate the number of years it will take for Andy to fully pay back the loan, we need to determine how many payments of $30,000 he would need to make to cover the loan amount and interest.
+First, let's calculate the total loan amount with interest:
+Loan amount = $100,000
+Interest rate = 3% per annum = 0.03 (as a decimal)
+Number of years = ?
+Quarterly payment = $30,000
+The formula for calculating the number of payments (n) is:
+n = [ln(1 + interest rate) * number of periods] / [ln(1 + interest rate) - ln(1 - payment/loan amount)]
+Plugging in the values:
+n = [ln(1 + 0.03) * 4] / [ln(1 + 0.03) - ln(1 - 30000/100000)]
+n ≈ 3.92
+Since we can't make a fraction of a payment, Andy will need to make 4 quarterly payments to fully pay back the loan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So, it will take Andy 1 year to pay back the loan fully (4 quarters = 1 year).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,8 +549,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +647,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,11 +677,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +717,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,18 +1061,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067B2C-016F-B641-A518-515D2BE2029D}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="59.58203125" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
@@ -596,48 +1080,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="17">
         <v>2</v>
       </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="341" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -651,33 +1139,33 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
+      <c r="F5" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -688,36 +1176,36 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="390" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,39 +1213,39 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -765,19 +1253,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
